--- a/CPP/Ian'sMethod/Instruction_Mapping_Updated.xlsx
+++ b/CPP/Ian'sMethod/Instruction_Mapping_Updated.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\GI_CQ\Spring2021\ECE586_CompArch\ECE586FinalProject\CPP\Ian'sMethod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A1374-0D3B-4177-A633-DD1DED3425F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44449448-1A17-413F-A400-340778F5DEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26290" yWindow="-4200" windowWidth="21600" windowHeight="11420" xr2:uid="{AA85A23C-2D59-47D2-8CBF-99B30334EEE3}"/>
+    <workbookView xWindow="-26740" yWindow="-4650" windowWidth="21600" windowHeight="11420" activeTab="1" xr2:uid="{AA85A23C-2D59-47D2-8CBF-99B30334EEE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MemoryMapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Control Scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Arithmetic Scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Logical Scenarios" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="43">
   <si>
     <t>Arithmetic</t>
   </si>
@@ -157,6 +160,12 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Logical S</t>
+  </si>
+  <si>
+    <t>STW Practice</t>
   </si>
 </sst>
 </file>
@@ -378,18 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,22 +396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,6 +412,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,10 +447,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E132ED-3E66-4DD6-BE08-5832CEFDA9D0}">
   <dimension ref="A1:BP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC37" sqref="AC37"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP73" sqref="AP73:BU84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -804,39 +813,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="24"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="20"/>
       <c r="BM1" s="12"/>
       <c r="BN1" s="12"/>
       <c r="BO1" s="12"/>
@@ -846,91 +855,91 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="26"/>
       <c r="BM2" s="7"/>
       <c r="BN2" s="7"/>
       <c r="BO2" s="7"/>
       <c r="BP2" s="14"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="AH3" s="34" t="s">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="AH3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="35"/>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="35"/>
-      <c r="BN3" s="35"/>
-      <c r="BO3" s="35"/>
-      <c r="BP3" s="36"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="32"/>
     </row>
     <row r="4" spans="1:68" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="9"/>
@@ -1034,43 +1043,43 @@
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="13"/>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="39"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="35"/>
     </row>
     <row r="6" spans="1:68" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
@@ -1183,120 +1192,120 @@
       <c r="BP7" s="5"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AH11" s="40" t="s">
+      <c r="A11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AH11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
-      <c r="BM11" s="41"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
     </row>
     <row r="13" spans="1:68" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="AH13" s="21" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="AH13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="AH14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="24"/>
+      <c r="A14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="AH14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:68" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
@@ -1399,74 +1408,74 @@
       <c r="BM15" s="8"/>
     </row>
     <row r="16" spans="1:68" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="20"/>
-      <c r="AH16" s="18" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="29"/>
+      <c r="AH16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-      <c r="BM16" s="20"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="29"/>
     </row>
     <row r="17" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -1663,50 +1672,50 @@
       </c>
     </row>
     <row r="19" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="AH19" s="21" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="AH19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="AH20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="24"/>
+      <c r="A20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="AH20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="9">
@@ -1733,9 +1742,7 @@
       <c r="H21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="I21" s="10"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -1811,74 +1818,74 @@
       <c r="BM21" s="8"/>
     </row>
     <row r="22" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="20"/>
-      <c r="AH22" s="18" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="29"/>
+      <c r="AH22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
-      <c r="BF22" s="19"/>
-      <c r="BG22" s="19"/>
-      <c r="BH22" s="19"/>
-      <c r="BI22" s="19"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19"/>
-      <c r="BL22" s="19"/>
-      <c r="BM22" s="20"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="29"/>
     </row>
     <row r="23" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
@@ -2075,50 +2082,50 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="AH25" s="21" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="AH25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="AH26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="24"/>
+      <c r="A26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="AH26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="20"/>
     </row>
     <row r="27" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="9">
@@ -2223,74 +2230,74 @@
       <c r="BM27" s="8"/>
     </row>
     <row r="28" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="20"/>
-      <c r="AH28" s="18" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="29"/>
+      <c r="AH28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="19"/>
-      <c r="BE28" s="19"/>
-      <c r="BF28" s="19"/>
-      <c r="BG28" s="19"/>
-      <c r="BH28" s="19"/>
-      <c r="BI28" s="19"/>
-      <c r="BJ28" s="19"/>
-      <c r="BK28" s="19"/>
-      <c r="BL28" s="19"/>
-      <c r="BM28" s="20"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="28"/>
+      <c r="AY28" s="28"/>
+      <c r="AZ28" s="28"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="28"/>
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="28"/>
+      <c r="BK28" s="28"/>
+      <c r="BL28" s="28"/>
+      <c r="BM28" s="29"/>
     </row>
     <row r="29" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
@@ -2487,50 +2494,50 @@
       </c>
     </row>
     <row r="31" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="AH31" s="21" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="AH31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="AH32" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="23"/>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="24"/>
+      <c r="A32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="AH32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="20"/>
     </row>
     <row r="33" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="9">
@@ -2635,74 +2642,74 @@
       <c r="BM33" s="8"/>
     </row>
     <row r="34" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="20"/>
-      <c r="AH34" s="18" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="29"/>
+      <c r="AH34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="19"/>
-      <c r="BE34" s="19"/>
-      <c r="BF34" s="19"/>
-      <c r="BG34" s="19"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="19"/>
-      <c r="BJ34" s="19"/>
-      <c r="BK34" s="19"/>
-      <c r="BL34" s="19"/>
-      <c r="BM34" s="20"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="28"/>
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28"/>
+      <c r="AZ34" s="28"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="28"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BE34" s="28"/>
+      <c r="BF34" s="28"/>
+      <c r="BG34" s="28"/>
+      <c r="BH34" s="28"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28"/>
+      <c r="BK34" s="28"/>
+      <c r="BL34" s="28"/>
+      <c r="BM34" s="29"/>
     </row>
     <row r="35" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
@@ -2899,50 +2906,50 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="AH37" s="21" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="AH37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A38" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="AH38" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
-      <c r="AL38" s="23"/>
-      <c r="AM38" s="23"/>
-      <c r="AN38" s="23"/>
-      <c r="AO38" s="23"/>
-      <c r="AP38" s="24"/>
+      <c r="A38" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="AH38" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="20"/>
     </row>
     <row r="39" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="9">
@@ -3047,74 +3054,74 @@
       <c r="BM39" s="8"/>
     </row>
     <row r="40" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="20"/>
-      <c r="AH40" s="18" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="29"/>
+      <c r="AH40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
-      <c r="AY40" s="19"/>
-      <c r="AZ40" s="19"/>
-      <c r="BA40" s="19"/>
-      <c r="BB40" s="19"/>
-      <c r="BC40" s="19"/>
-      <c r="BD40" s="19"/>
-      <c r="BE40" s="19"/>
-      <c r="BF40" s="19"/>
-      <c r="BG40" s="19"/>
-      <c r="BH40" s="19"/>
-      <c r="BI40" s="19"/>
-      <c r="BJ40" s="19"/>
-      <c r="BK40" s="19"/>
-      <c r="BL40" s="19"/>
-      <c r="BM40" s="20"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="28"/>
+      <c r="AY40" s="28"/>
+      <c r="AZ40" s="28"/>
+      <c r="BA40" s="28"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="29"/>
     </row>
     <row r="41" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
@@ -3311,50 +3318,50 @@
       </c>
     </row>
     <row r="43" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="AH43" s="21" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="AH43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="21"/>
-      <c r="AO43" s="21"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
     </row>
     <row r="44" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A44" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="AH44" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="23"/>
-      <c r="AJ44" s="23"/>
-      <c r="AK44" s="23"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="23"/>
-      <c r="AO44" s="23"/>
-      <c r="AP44" s="24"/>
+      <c r="A44" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="AH44" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="9">
@@ -3445,74 +3452,74 @@
       <c r="BM45" s="8"/>
     </row>
     <row r="46" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="20"/>
-      <c r="AH46" s="18" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="29"/>
+      <c r="AH46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
-      <c r="BA46" s="19"/>
-      <c r="BB46" s="19"/>
-      <c r="BC46" s="19"/>
-      <c r="BD46" s="19"/>
-      <c r="BE46" s="19"/>
-      <c r="BF46" s="19"/>
-      <c r="BG46" s="19"/>
-      <c r="BH46" s="19"/>
-      <c r="BI46" s="19"/>
-      <c r="BJ46" s="19"/>
-      <c r="BK46" s="19"/>
-      <c r="BL46" s="19"/>
-      <c r="BM46" s="20"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
+      <c r="AY46" s="28"/>
+      <c r="AZ46" s="28"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="28"/>
+      <c r="BD46" s="28"/>
+      <c r="BE46" s="28"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="28"/>
+      <c r="BH46" s="28"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="28"/>
+      <c r="BK46" s="28"/>
+      <c r="BL46" s="28"/>
+      <c r="BM46" s="29"/>
     </row>
     <row r="47" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
@@ -3709,120 +3716,120 @@
       </c>
     </row>
     <row r="50" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AH50" s="29" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AH50" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="30"/>
-      <c r="AL50" s="30"/>
-      <c r="AM50" s="30"/>
-      <c r="AN50" s="30"/>
-      <c r="AO50" s="30"/>
-      <c r="AP50" s="30"/>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="30"/>
-      <c r="AU50" s="30"/>
-      <c r="AV50" s="30"/>
-      <c r="AW50" s="30"/>
-      <c r="AX50" s="30"/>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="30"/>
-      <c r="BA50" s="30"/>
-      <c r="BB50" s="30"/>
-      <c r="BC50" s="30"/>
-      <c r="BD50" s="30"/>
-      <c r="BE50" s="30"/>
-      <c r="BF50" s="30"/>
-      <c r="BG50" s="30"/>
-      <c r="BH50" s="30"/>
-      <c r="BI50" s="30"/>
-      <c r="BJ50" s="30"/>
-      <c r="BK50" s="30"/>
-      <c r="BL50" s="30"/>
-      <c r="BM50" s="30"/>
+      <c r="AI50" s="41"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="41"/>
+      <c r="AM50" s="41"/>
+      <c r="AN50" s="41"/>
+      <c r="AO50" s="41"/>
+      <c r="AP50" s="41"/>
+      <c r="AQ50" s="41"/>
+      <c r="AR50" s="41"/>
+      <c r="AS50" s="41"/>
+      <c r="AT50" s="41"/>
+      <c r="AU50" s="41"/>
+      <c r="AV50" s="41"/>
+      <c r="AW50" s="41"/>
+      <c r="AX50" s="41"/>
+      <c r="AY50" s="41"/>
+      <c r="AZ50" s="41"/>
+      <c r="BA50" s="41"/>
+      <c r="BB50" s="41"/>
+      <c r="BC50" s="41"/>
+      <c r="BD50" s="41"/>
+      <c r="BE50" s="41"/>
+      <c r="BF50" s="41"/>
+      <c r="BG50" s="41"/>
+      <c r="BH50" s="41"/>
+      <c r="BI50" s="41"/>
+      <c r="BJ50" s="41"/>
+      <c r="BK50" s="41"/>
+      <c r="BL50" s="41"/>
+      <c r="BM50" s="41"/>
     </row>
     <row r="52" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="AH52" s="21" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="AH52" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
     </row>
     <row r="53" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A53" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="AH53" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="24"/>
+      <c r="A53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="AH53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="20"/>
     </row>
     <row r="54" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="9">
@@ -3927,74 +3934,74 @@
       <c r="BM54" s="8"/>
     </row>
     <row r="55" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="20"/>
-      <c r="AH55" s="18" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="29"/>
+      <c r="AH55" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19"/>
-      <c r="AQ55" s="19"/>
-      <c r="AR55" s="19"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="19"/>
-      <c r="AU55" s="19"/>
-      <c r="AV55" s="19"/>
-      <c r="AW55" s="19"/>
-      <c r="AX55" s="19"/>
-      <c r="AY55" s="19"/>
-      <c r="AZ55" s="19"/>
-      <c r="BA55" s="19"/>
-      <c r="BB55" s="19"/>
-      <c r="BC55" s="19"/>
-      <c r="BD55" s="19"/>
-      <c r="BE55" s="19"/>
-      <c r="BF55" s="19"/>
-      <c r="BG55" s="19"/>
-      <c r="BH55" s="19"/>
-      <c r="BI55" s="19"/>
-      <c r="BJ55" s="19"/>
-      <c r="BK55" s="19"/>
-      <c r="BL55" s="19"/>
-      <c r="BM55" s="20"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
+      <c r="AS55" s="28"/>
+      <c r="AT55" s="28"/>
+      <c r="AU55" s="28"/>
+      <c r="AV55" s="28"/>
+      <c r="AW55" s="28"/>
+      <c r="AX55" s="28"/>
+      <c r="AY55" s="28"/>
+      <c r="AZ55" s="28"/>
+      <c r="BA55" s="28"/>
+      <c r="BB55" s="28"/>
+      <c r="BC55" s="28"/>
+      <c r="BD55" s="28"/>
+      <c r="BE55" s="28"/>
+      <c r="BF55" s="28"/>
+      <c r="BG55" s="28"/>
+      <c r="BH55" s="28"/>
+      <c r="BI55" s="28"/>
+      <c r="BJ55" s="28"/>
+      <c r="BK55" s="28"/>
+      <c r="BL55" s="28"/>
+      <c r="BM55" s="29"/>
     </row>
     <row r="56" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
@@ -4191,50 +4198,50 @@
       </c>
     </row>
     <row r="58" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="AH58" s="21" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="AH58" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
-      <c r="AN58" s="21"/>
-      <c r="AO58" s="21"/>
+      <c r="AI58" s="23"/>
+      <c r="AJ58" s="23"/>
+      <c r="AK58" s="23"/>
+      <c r="AL58" s="23"/>
+      <c r="AM58" s="23"/>
+      <c r="AN58" s="23"/>
+      <c r="AO58" s="23"/>
     </row>
     <row r="59" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A59" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="24"/>
-      <c r="AH59" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="23"/>
-      <c r="AJ59" s="23"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="23"/>
-      <c r="AM59" s="23"/>
-      <c r="AN59" s="23"/>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="24"/>
+      <c r="A59" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="20"/>
+      <c r="AH59" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="9">
@@ -4339,74 +4346,74 @@
       <c r="BM60" s="8"/>
     </row>
     <row r="61" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="20"/>
-      <c r="AH61" s="18" t="s">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
+      <c r="AE61" s="28"/>
+      <c r="AF61" s="29"/>
+      <c r="AH61" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI61" s="19"/>
-      <c r="AJ61" s="19"/>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="19"/>
-      <c r="AM61" s="19"/>
-      <c r="AN61" s="19"/>
-      <c r="AO61" s="19"/>
-      <c r="AP61" s="19"/>
-      <c r="AQ61" s="19"/>
-      <c r="AR61" s="19"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="19"/>
-      <c r="AU61" s="19"/>
-      <c r="AV61" s="19"/>
-      <c r="AW61" s="19"/>
-      <c r="AX61" s="19"/>
-      <c r="AY61" s="19"/>
-      <c r="AZ61" s="19"/>
-      <c r="BA61" s="19"/>
-      <c r="BB61" s="19"/>
-      <c r="BC61" s="19"/>
-      <c r="BD61" s="19"/>
-      <c r="BE61" s="19"/>
-      <c r="BF61" s="19"/>
-      <c r="BG61" s="19"/>
-      <c r="BH61" s="19"/>
-      <c r="BI61" s="19"/>
-      <c r="BJ61" s="19"/>
-      <c r="BK61" s="19"/>
-      <c r="BL61" s="19"/>
-      <c r="BM61" s="20"/>
+      <c r="AI61" s="28"/>
+      <c r="AJ61" s="28"/>
+      <c r="AK61" s="28"/>
+      <c r="AL61" s="28"/>
+      <c r="AM61" s="28"/>
+      <c r="AN61" s="28"/>
+      <c r="AO61" s="28"/>
+      <c r="AP61" s="28"/>
+      <c r="AQ61" s="28"/>
+      <c r="AR61" s="28"/>
+      <c r="AS61" s="28"/>
+      <c r="AT61" s="28"/>
+      <c r="AU61" s="28"/>
+      <c r="AV61" s="28"/>
+      <c r="AW61" s="28"/>
+      <c r="AX61" s="28"/>
+      <c r="AY61" s="28"/>
+      <c r="AZ61" s="28"/>
+      <c r="BA61" s="28"/>
+      <c r="BB61" s="28"/>
+      <c r="BC61" s="28"/>
+      <c r="BD61" s="28"/>
+      <c r="BE61" s="28"/>
+      <c r="BF61" s="28"/>
+      <c r="BG61" s="28"/>
+      <c r="BH61" s="28"/>
+      <c r="BI61" s="28"/>
+      <c r="BJ61" s="28"/>
+      <c r="BK61" s="28"/>
+      <c r="BL61" s="28"/>
+      <c r="BM61" s="29"/>
     </row>
     <row r="62" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
@@ -4603,29 +4610,29 @@
       </c>
     </row>
     <row r="64" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="AH64" s="21" t="s">
+      <c r="AH64" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
-      <c r="AN64" s="21"/>
-      <c r="AO64" s="21"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="23"/>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="AH65" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI65" s="23"/>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="23"/>
-      <c r="AL65" s="23"/>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="23"/>
-      <c r="AO65" s="23"/>
-      <c r="AP65" s="24"/>
+      <c r="AH65" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="19"/>
+      <c r="AL65" s="19"/>
+      <c r="AM65" s="19"/>
+      <c r="AN65" s="19"/>
+      <c r="AO65" s="19"/>
+      <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AH66" s="9">
@@ -4680,40 +4687,40 @@
       <c r="BM66" s="8"/>
     </row>
     <row r="67" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="AH67" s="18" t="s">
+      <c r="AH67" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
-      <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
-      <c r="AO67" s="19"/>
-      <c r="AP67" s="19"/>
-      <c r="AQ67" s="19"/>
-      <c r="AR67" s="19"/>
-      <c r="AS67" s="19"/>
-      <c r="AT67" s="19"/>
-      <c r="AU67" s="19"/>
-      <c r="AV67" s="19"/>
-      <c r="AW67" s="19"/>
-      <c r="AX67" s="19"/>
-      <c r="AY67" s="19"/>
-      <c r="AZ67" s="19"/>
-      <c r="BA67" s="19"/>
-      <c r="BB67" s="19"/>
-      <c r="BC67" s="19"/>
-      <c r="BD67" s="19"/>
-      <c r="BE67" s="19"/>
-      <c r="BF67" s="19"/>
-      <c r="BG67" s="19"/>
-      <c r="BH67" s="19"/>
-      <c r="BI67" s="19"/>
-      <c r="BJ67" s="19"/>
-      <c r="BK67" s="19"/>
-      <c r="BL67" s="19"/>
-      <c r="BM67" s="20"/>
+      <c r="AI67" s="28"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="28"/>
+      <c r="AL67" s="28"/>
+      <c r="AM67" s="28"/>
+      <c r="AN67" s="28"/>
+      <c r="AO67" s="28"/>
+      <c r="AP67" s="28"/>
+      <c r="AQ67" s="28"/>
+      <c r="AR67" s="28"/>
+      <c r="AS67" s="28"/>
+      <c r="AT67" s="28"/>
+      <c r="AU67" s="28"/>
+      <c r="AV67" s="28"/>
+      <c r="AW67" s="28"/>
+      <c r="AX67" s="28"/>
+      <c r="AY67" s="28"/>
+      <c r="AZ67" s="28"/>
+      <c r="BA67" s="28"/>
+      <c r="BB67" s="28"/>
+      <c r="BC67" s="28"/>
+      <c r="BD67" s="28"/>
+      <c r="BE67" s="28"/>
+      <c r="BF67" s="28"/>
+      <c r="BG67" s="28"/>
+      <c r="BH67" s="28"/>
+      <c r="BI67" s="28"/>
+      <c r="BJ67" s="28"/>
+      <c r="BK67" s="28"/>
+      <c r="BL67" s="28"/>
+      <c r="BM67" s="29"/>
     </row>
     <row r="68" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AH68" s="1">
@@ -4814,65 +4821,65 @@
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
-      <c r="AF71" s="26"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
     </row>
     <row r="72" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A73" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="24"/>
+      <c r="A73" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="9">
@@ -4927,40 +4934,40 @@
       <c r="AF74" s="8"/>
     </row>
     <row r="75" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19"/>
-      <c r="AF75" s="20"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="29"/>
     </row>
     <row r="76" spans="1:65" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
@@ -5063,16 +5070,43 @@
     <row r="77" spans="1:65" ht="13.15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:AF11"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="AH32:AP32"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A75:AF75"/>
+    <mergeCell ref="AH64:AO64"/>
+    <mergeCell ref="AH65:AP65"/>
+    <mergeCell ref="AH67:BM67"/>
+    <mergeCell ref="A71:AF71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A61:AF61"/>
+    <mergeCell ref="AH52:AO52"/>
+    <mergeCell ref="AH53:AP53"/>
+    <mergeCell ref="AH55:BM55"/>
+    <mergeCell ref="AH58:AO58"/>
+    <mergeCell ref="AH59:AP59"/>
+    <mergeCell ref="AH61:BM61"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A50:AF50"/>
+    <mergeCell ref="AH50:BM50"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A55:AF55"/>
+    <mergeCell ref="A46:AF46"/>
+    <mergeCell ref="AH16:BM16"/>
+    <mergeCell ref="AH22:BM22"/>
+    <mergeCell ref="AH28:BM28"/>
+    <mergeCell ref="AH34:BM34"/>
+    <mergeCell ref="AH40:BM40"/>
+    <mergeCell ref="AH46:BM46"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="AH38:AP38"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="AH44:AP44"/>
+    <mergeCell ref="A40:AF40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="AH1:BL2"/>
     <mergeCell ref="A22:AF22"/>
     <mergeCell ref="A16:AF16"/>
@@ -5089,45 +5123,529 @@
     <mergeCell ref="AH3:BP3"/>
     <mergeCell ref="AH5:BP5"/>
     <mergeCell ref="AH11:BM11"/>
-    <mergeCell ref="A46:AF46"/>
-    <mergeCell ref="AH16:BM16"/>
-    <mergeCell ref="AH22:BM22"/>
-    <mergeCell ref="AH28:BM28"/>
-    <mergeCell ref="AH34:BM34"/>
-    <mergeCell ref="AH40:BM40"/>
-    <mergeCell ref="AH46:BM46"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="AH38:AP38"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AH44:AP44"/>
-    <mergeCell ref="A40:AF40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A50:AF50"/>
-    <mergeCell ref="AH50:BM50"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A55:AF55"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A61:AF61"/>
-    <mergeCell ref="AH52:AO52"/>
-    <mergeCell ref="AH53:AP53"/>
-    <mergeCell ref="AH55:BM55"/>
-    <mergeCell ref="AH58:AO58"/>
-    <mergeCell ref="AH59:AP59"/>
-    <mergeCell ref="AH61:BM61"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A75:AF75"/>
-    <mergeCell ref="AH64:AO64"/>
-    <mergeCell ref="AH65:AP65"/>
-    <mergeCell ref="AH67:BM67"/>
-    <mergeCell ref="A71:AF71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A11:AF11"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="AH32:AP32"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE745D6-6F08-4A86-BC36-2C56AAB47B1F}">
+  <dimension ref="A1:AF13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="83" width="1.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+    </row>
+    <row r="12" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
+    </row>
+    <row r="13" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:AF12"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:AF6"/>
+    <mergeCell ref="A1:AF1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C2A75B-3AF4-4B35-9DC3-A6AF296D7FD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1009DD5C-7515-4976-8250-13BCB93D3A0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>